--- a/plantillas/consulta/Proyectos_Opinar.xlsx
+++ b/plantillas/consulta/Proyectos_Opinar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72EE62A-D373-49DF-BF84-87A09616B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D60FEA-4580-4156-967C-793F8D3692F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F752A01-72FF-4D34-B180-C2EAD64A4CCD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F752A01-72FF-4D34-B180-C2EAD64A4CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +183,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +545,7 @@
     <col min="6" max="6" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
@@ -583,36 +587,44 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
